--- a/Data/EC/NIT-8904804490.xlsx
+++ b/Data/EC/NIT-8904804490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F0D618-4D1C-40EE-9DAB-39AE0E3BFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6ECB9A-1982-4D5C-BCCE-4C25239BA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2776215-419A-4807-991F-5A8D8B5B6999}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{661FD6CD-1154-4C05-B00C-422965CEE00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73112188</t>
+  </si>
+  <si>
+    <t>GERMAN PEREZ CARABALLO</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>45541708</t>
   </si>
   <si>
@@ -74,13 +83,115 @@
     <t>1701</t>
   </si>
   <si>
+    <t>94415029</t>
+  </si>
+  <si>
+    <t>EDDIE VILLAMIL ALVIAR</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1047391435</t>
+  </si>
+  <si>
+    <t>CECILIA ALVAREZ BELEÑO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>92538866</t>
   </si>
   <si>
     <t>ALBERTO SIBAJA CARRILLO</t>
   </si>
   <si>
-    <t>1801</t>
+    <t>73161968</t>
+  </si>
+  <si>
+    <t>PIERE GABRIEL PADILLA RHENALS</t>
+  </si>
+  <si>
+    <t>45477806</t>
+  </si>
+  <si>
+    <t>VICTORIA DEL SOCORRO CABRERA CABRALES</t>
+  </si>
+  <si>
+    <t>45549583</t>
+  </si>
+  <si>
+    <t>VIVIANA DEL CARMEN LOPEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>45514249</t>
+  </si>
+  <si>
+    <t>ONEYDA RAMIREZ TIJERA</t>
+  </si>
+  <si>
+    <t>45688938</t>
+  </si>
+  <si>
+    <t>KAREN BERENICE OROZCO BELEÑO</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1143386833</t>
+  </si>
+  <si>
+    <t>KEYLA PATRICIA FUENTES LOPEZ</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1047422198</t>
+  </si>
+  <si>
+    <t>IRLENA PATRICIA DIAZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1143327928</t>
+  </si>
+  <si>
+    <t>TREICY JOHANNA SARABIA CARRASCAL</t>
+  </si>
+  <si>
+    <t>1047398765</t>
+  </si>
+  <si>
+    <t>YORBY MILENA BERRIO OLIVARES</t>
+  </si>
+  <si>
+    <t>1047457748</t>
+  </si>
+  <si>
+    <t>CINDY PAOLA MARTINEZ CAUCIL</t>
+  </si>
+  <si>
+    <t>45762174</t>
+  </si>
+  <si>
+    <t>OSIRIS RODRIGUEZ CASTAÑO</t>
+  </si>
+  <si>
+    <t>85447127</t>
+  </si>
+  <si>
+    <t>JORGE GUSTAVO TORRES SEQUEA</t>
   </si>
   <si>
     <t>1128047897</t>
@@ -89,55 +200,85 @@
     <t>RAFAEL DAVID AVILEZ MORALES</t>
   </si>
   <si>
+    <t>45494410</t>
+  </si>
+  <si>
+    <t>YOLIMA MARIA CABRERA CABARCAS</t>
+  </si>
+  <si>
+    <t>1047423925</t>
+  </si>
+  <si>
+    <t>KATHERIN LUCIA WATTS MATURANA</t>
+  </si>
+  <si>
+    <t>1047507319</t>
+  </si>
+  <si>
+    <t>ALEJANDRA SOFIA HERNANDEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>34996310</t>
+  </si>
+  <si>
+    <t>VESPER ISABEL QUINTERO MERCADO</t>
+  </si>
+  <si>
+    <t>1047456029</t>
+  </si>
+  <si>
+    <t>YORELIS GUETE MONTALVO</t>
+  </si>
+  <si>
+    <t>1047413454</t>
+  </si>
+  <si>
+    <t>KEREN SUSANA MARQUEZ CORTECERO</t>
+  </si>
+  <si>
+    <t>1047436540</t>
+  </si>
+  <si>
+    <t>KEEPDRIS HERNANDEZ MORENO</t>
+  </si>
+  <si>
+    <t>1143375137</t>
+  </si>
+  <si>
+    <t>CARMEN EDITH MOSCOTE BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>45521752</t>
+  </si>
+  <si>
+    <t>YAJAIRA ATENCIO BLANCO</t>
+  </si>
+  <si>
     <t>1047450959</t>
   </si>
   <si>
     <t>YULEIDYS PATRICIA VALDES BERRIO</t>
   </si>
   <si>
-    <t>94415029</t>
-  </si>
-  <si>
-    <t>EDDIE VILLAMIL ALVIAR</t>
-  </si>
-  <si>
-    <t>73161968</t>
-  </si>
-  <si>
-    <t>PIERE GABRIEL PADILLA RHENALS</t>
-  </si>
-  <si>
-    <t>85447127</t>
-  </si>
-  <si>
-    <t>JORGE GUSTAVO TORRES SEQUEA</t>
-  </si>
-  <si>
-    <t>1143386833</t>
-  </si>
-  <si>
-    <t>KEYLA PATRICIA FUENTES LOPEZ</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>45688938</t>
-  </si>
-  <si>
-    <t>KAREN BERENICE OROZCO BELEÑO</t>
+    <t>45538928</t>
+  </si>
+  <si>
+    <t>LILIANA CASTILLA CASTRO</t>
+  </si>
+  <si>
+    <t>1143386866</t>
+  </si>
+  <si>
+    <t>MARGARETH PAOLA MAY CARDENAS</t>
+  </si>
+  <si>
+    <t>92514591</t>
+  </si>
+  <si>
+    <t>JOSE MARIA ALMANZA VASQUEZ</t>
   </si>
   <si>
     <t>1050975330</t>
@@ -566,7 +707,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2203DF84-D747-3BD1-52C5-5E113149F189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C97820-BAE7-810A-A736-14DF6D82B16B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +1058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ACCFCA-73D6-4B9A-BEF6-5A036332DFFA}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3435099-6539-45DE-BE45-D447A590E578}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -929,7 +1070,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -942,7 +1083,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +1128,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1019,12 +1160,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>322009</v>
+        <v>1449173</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1176,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1095,10 +1236,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29333</v>
+        <v>48044</v>
       </c>
       <c r="G16" s="18">
-        <v>1572444</v>
+        <v>1460988</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,10 +1259,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>1511</v>
+        <v>29333</v>
       </c>
       <c r="G17" s="18">
-        <v>1133130</v>
+        <v>1572444</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1138,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>1511</v>
@@ -1155,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>1042</v>
+        <v>38520</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>963000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1178,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>1511</v>
@@ -1201,13 +1342,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>45325</v>
@@ -1224,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>1511</v>
+        <v>65160</v>
       </c>
       <c r="G22" s="18">
-        <v>1133130</v>
+        <v>1629000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1253,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>44000</v>
+        <v>54250</v>
       </c>
       <c r="G23" s="18">
-        <v>1100000</v>
+        <v>1629000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1270,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>44000</v>
+        <v>48044</v>
       </c>
       <c r="G24" s="18">
-        <v>1100000</v>
+        <v>1201118</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1293,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1100000</v>
+        <v>1201118</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1316,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>44000</v>
+        <v>43040</v>
       </c>
       <c r="G26" s="18">
-        <v>1100000</v>
+        <v>1076010</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1339,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27" s="18">
-        <v>44000</v>
+        <v>3200</v>
       </c>
       <c r="G27" s="18">
-        <v>1100000</v>
+        <v>2792018</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1362,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F28" s="18">
-        <v>3200</v>
+        <v>44000</v>
       </c>
       <c r="G28" s="18">
-        <v>1200000</v>
+        <v>1100000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1391,69 +1532,644 @@
         <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
-        <v>1200</v>
+        <v>44000</v>
       </c>
       <c r="G29" s="18">
-        <v>450000</v>
+        <v>1100000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="F30" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F31" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="18">
+        <v>37164</v>
+      </c>
+      <c r="G34" s="18">
+        <v>929101</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G35" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="18">
+        <v>58628</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1465710</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1511</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1133130</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1511</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1133130</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G41" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="18">
+        <v>75260</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1881496</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G44" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1042</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="18">
+        <v>48044</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1201118</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="18">
+        <v>450000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="24">
         <v>15865</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G55" s="24">
         <v>1322071</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904804490.xlsx
+++ b/Data/EC/NIT-8904804490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6ECB9A-1982-4D5C-BCCE-4C25239BA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{543A8246-048A-41DC-8DB6-271EA16B37C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{661FD6CD-1154-4C05-B00C-422965CEE00F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28A10952-9AE5-437C-9945-ED84C43AFBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,15 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73112188</t>
-  </si>
-  <si>
-    <t>GERMAN PEREZ CARABALLO</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
     <t>45541708</t>
   </si>
   <si>
@@ -92,15 +83,6 @@
     <t>1801</t>
   </si>
   <si>
-    <t>1047391435</t>
-  </si>
-  <si>
-    <t>CECILIA ALVAREZ BELEÑO</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
     <t>92538866</t>
   </si>
   <si>
@@ -113,22 +95,40 @@
     <t>PIERE GABRIEL PADILLA RHENALS</t>
   </si>
   <si>
-    <t>45477806</t>
-  </si>
-  <si>
-    <t>VICTORIA DEL SOCORRO CABRERA CABRALES</t>
-  </si>
-  <si>
-    <t>45549583</t>
-  </si>
-  <si>
-    <t>VIVIANA DEL CARMEN LOPEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>45514249</t>
-  </si>
-  <si>
-    <t>ONEYDA RAMIREZ TIJERA</t>
+    <t>85447127</t>
+  </si>
+  <si>
+    <t>JORGE GUSTAVO TORRES SEQUEA</t>
+  </si>
+  <si>
+    <t>1128047897</t>
+  </si>
+  <si>
+    <t>RAFAEL DAVID AVILEZ MORALES</t>
+  </si>
+  <si>
+    <t>1047450959</t>
+  </si>
+  <si>
+    <t>YULEIDYS PATRICIA VALDES BERRIO</t>
+  </si>
+  <si>
+    <t>1143386833</t>
+  </si>
+  <si>
+    <t>KEYLA PATRICIA FUENTES LOPEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
   </si>
   <si>
     <t>45688938</t>
@@ -138,147 +138,6 @@
   </si>
   <si>
     <t>1907</t>
-  </si>
-  <si>
-    <t>1143386833</t>
-  </si>
-  <si>
-    <t>KEYLA PATRICIA FUENTES LOPEZ</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1047422198</t>
-  </si>
-  <si>
-    <t>IRLENA PATRICIA DIAZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>1143327928</t>
-  </si>
-  <si>
-    <t>TREICY JOHANNA SARABIA CARRASCAL</t>
-  </si>
-  <si>
-    <t>1047398765</t>
-  </si>
-  <si>
-    <t>YORBY MILENA BERRIO OLIVARES</t>
-  </si>
-  <si>
-    <t>1047457748</t>
-  </si>
-  <si>
-    <t>CINDY PAOLA MARTINEZ CAUCIL</t>
-  </si>
-  <si>
-    <t>45762174</t>
-  </si>
-  <si>
-    <t>OSIRIS RODRIGUEZ CASTAÑO</t>
-  </si>
-  <si>
-    <t>85447127</t>
-  </si>
-  <si>
-    <t>JORGE GUSTAVO TORRES SEQUEA</t>
-  </si>
-  <si>
-    <t>1128047897</t>
-  </si>
-  <si>
-    <t>RAFAEL DAVID AVILEZ MORALES</t>
-  </si>
-  <si>
-    <t>45494410</t>
-  </si>
-  <si>
-    <t>YOLIMA MARIA CABRERA CABARCAS</t>
-  </si>
-  <si>
-    <t>1047423925</t>
-  </si>
-  <si>
-    <t>KATHERIN LUCIA WATTS MATURANA</t>
-  </si>
-  <si>
-    <t>1047507319</t>
-  </si>
-  <si>
-    <t>ALEJANDRA SOFIA HERNANDEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>34996310</t>
-  </si>
-  <si>
-    <t>VESPER ISABEL QUINTERO MERCADO</t>
-  </si>
-  <si>
-    <t>1047456029</t>
-  </si>
-  <si>
-    <t>YORELIS GUETE MONTALVO</t>
-  </si>
-  <si>
-    <t>1047413454</t>
-  </si>
-  <si>
-    <t>KEREN SUSANA MARQUEZ CORTECERO</t>
-  </si>
-  <si>
-    <t>1047436540</t>
-  </si>
-  <si>
-    <t>KEEPDRIS HERNANDEZ MORENO</t>
-  </si>
-  <si>
-    <t>1143375137</t>
-  </si>
-  <si>
-    <t>CARMEN EDITH MOSCOTE BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>45521752</t>
-  </si>
-  <si>
-    <t>YAJAIRA ATENCIO BLANCO</t>
-  </si>
-  <si>
-    <t>1047450959</t>
-  </si>
-  <si>
-    <t>YULEIDYS PATRICIA VALDES BERRIO</t>
-  </si>
-  <si>
-    <t>45538928</t>
-  </si>
-  <si>
-    <t>LILIANA CASTILLA CASTRO</t>
-  </si>
-  <si>
-    <t>1143386866</t>
-  </si>
-  <si>
-    <t>MARGARETH PAOLA MAY CARDENAS</t>
-  </si>
-  <si>
-    <t>92514591</t>
-  </si>
-  <si>
-    <t>JOSE MARIA ALMANZA VASQUEZ</t>
   </si>
   <si>
     <t>1050975330</t>
@@ -392,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -405,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -607,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C97820-BAE7-810A-A736-14DF6D82B16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBE0318-FFF4-FA4C-570D-FD9DDBAF9FEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3435099-6539-45DE-BE45-D447A590E578}">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47EE3FD-1C3F-479C-9E75-498AA537373F}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1070,7 +929,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1083,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1128,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1160,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1449173</v>
+        <v>322009</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1176,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1213,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1236,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>48044</v>
+        <v>29333</v>
       </c>
       <c r="G16" s="18">
-        <v>1460988</v>
+        <v>1572444</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1259,10 +1118,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29333</v>
+        <v>1511</v>
       </c>
       <c r="G17" s="18">
-        <v>1572444</v>
+        <v>1133130</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1279,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>1511</v>
@@ -1296,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>38520</v>
+        <v>45325</v>
       </c>
       <c r="G19" s="18">
-        <v>963000</v>
+        <v>1133130</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1319,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>1511</v>
@@ -1342,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>45325</v>
+        <v>1511</v>
       </c>
       <c r="G21" s="18">
         <v>1133130</v>
@@ -1365,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>65160</v>
+        <v>1042</v>
       </c>
       <c r="G22" s="18">
-        <v>1629000</v>
+        <v>1547000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1394,13 +1253,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
-        <v>54250</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>1629000</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1411,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F24" s="18">
-        <v>48044</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="18">
-        <v>1201118</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1434,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G25" s="18">
-        <v>1201118</v>
+        <v>1100000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1457,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F26" s="18">
-        <v>43040</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="18">
-        <v>1076010</v>
+        <v>1100000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1492,7 +1351,7 @@
         <v>3200</v>
       </c>
       <c r="G27" s="18">
-        <v>2792018</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1503,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>33</v>
@@ -1532,644 +1391,69 @@
         <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
-        <v>44000</v>
+        <v>1200</v>
       </c>
       <c r="G29" s="18">
-        <v>1100000</v>
+        <v>450000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="E30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="18">
-        <v>37164</v>
-      </c>
-      <c r="G34" s="18">
-        <v>929101</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F30" s="24">
+        <v>15865</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1322071</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G35" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="B35" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="B36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="18">
-        <v>58628</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1465710</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1511</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1133130</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1511</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1133130</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G41" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="18">
-        <v>75260</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1881496</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G44" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1042</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="18">
-        <v>48044</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1201118</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="18">
-        <v>1200</v>
-      </c>
-      <c r="G54" s="18">
-        <v>450000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="24">
-        <v>15865</v>
-      </c>
-      <c r="G55" s="24">
-        <v>1322071</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
